--- a/files/28_11_2022/route_number_3.xlsx
+++ b/files/28_11_2022/route_number_3.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,1365 +435,1452 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>689154</v>
+        <v>609289</v>
       </c>
       <c r="B2">
-        <v>607732</v>
+        <v>636058</v>
       </c>
       <c r="C2">
-        <v>37.50016965</v>
+        <v>38.44969894</v>
       </c>
       <c r="D2">
-        <v>56.08911429</v>
+        <v>55.78868367</v>
       </c>
       <c r="E2">
-        <v>37.49508926</v>
+        <v>38.4407776</v>
       </c>
       <c r="F2">
-        <v>56.09538156</v>
+        <v>55.79248082</v>
       </c>
       <c r="G2">
-        <v>11.42</v>
+        <v>12.25</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>1.42</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>607732</v>
+        <v>636058</v>
       </c>
       <c r="B3">
-        <v>619643</v>
+        <v>635727</v>
       </c>
       <c r="C3">
-        <v>37.49508926</v>
+        <v>38.4407776</v>
       </c>
       <c r="D3">
-        <v>56.09538156</v>
+        <v>55.79248082</v>
       </c>
       <c r="E3">
-        <v>37.50010834</v>
+        <v>38.4365162</v>
       </c>
       <c r="F3">
-        <v>56.1303837</v>
+        <v>55.79097422</v>
       </c>
       <c r="G3">
-        <v>22.63</v>
+        <v>10.62</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3">
-        <v>12.63</v>
+        <v>0.6199999999999992</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>619643</v>
+        <v>635727</v>
       </c>
       <c r="B4">
-        <v>635522</v>
+        <v>630465</v>
       </c>
       <c r="C4">
-        <v>37.50010834</v>
+        <v>38.4365162</v>
       </c>
       <c r="D4">
-        <v>56.1303837</v>
+        <v>55.79097422</v>
       </c>
       <c r="E4">
-        <v>37.49582942</v>
+        <v>38.44100972</v>
       </c>
       <c r="F4">
-        <v>56.14970232</v>
+        <v>55.79198154</v>
       </c>
       <c r="G4">
-        <v>16.55</v>
+        <v>10.83</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="I4">
-        <v>6.550000000000001</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>635522</v>
+        <v>630465</v>
       </c>
       <c r="B5">
-        <v>677517</v>
+        <v>688226</v>
       </c>
       <c r="C5">
-        <v>37.49582942</v>
+        <v>38.44100972</v>
       </c>
       <c r="D5">
-        <v>56.14970232</v>
+        <v>55.79198154</v>
       </c>
       <c r="E5">
-        <v>37.51923863</v>
+        <v>38.43900822</v>
       </c>
       <c r="F5">
-        <v>56.20842024</v>
+        <v>55.78475075</v>
       </c>
       <c r="G5">
-        <v>21.74</v>
+        <v>11.66</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="I5">
-        <v>11.74</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>677517</v>
+        <v>688226</v>
       </c>
       <c r="B6">
-        <v>607775</v>
+        <v>645337</v>
       </c>
       <c r="C6">
-        <v>37.51923863</v>
+        <v>38.43900822</v>
       </c>
       <c r="D6">
-        <v>56.20842024</v>
+        <v>55.78475075</v>
       </c>
       <c r="E6">
-        <v>37.92335739</v>
+        <v>38.43714825</v>
       </c>
       <c r="F6">
-        <v>56.13575314</v>
+        <v>55.77957865</v>
       </c>
       <c r="G6">
-        <v>38.53</v>
+        <v>10.97</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>28.53</v>
+        <v>0.9700000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>607775</v>
+        <v>645337</v>
       </c>
       <c r="B7">
-        <v>698998</v>
+        <v>645058</v>
       </c>
       <c r="C7">
-        <v>37.92335739</v>
+        <v>38.43714825</v>
       </c>
       <c r="D7">
-        <v>56.13575314</v>
+        <v>55.77957865</v>
       </c>
       <c r="E7">
-        <v>37.85222464</v>
+        <v>38.43592933</v>
       </c>
       <c r="F7">
-        <v>56.05582476</v>
+        <v>55.76907161</v>
       </c>
       <c r="G7">
-        <v>26.87</v>
+        <v>12.33</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
       <c r="I7">
-        <v>16.87</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>698998</v>
+        <v>645058</v>
       </c>
       <c r="B8">
-        <v>638717</v>
+        <v>630459</v>
       </c>
       <c r="C8">
-        <v>37.85222464</v>
+        <v>38.43592933</v>
       </c>
       <c r="D8">
-        <v>56.05582476</v>
+        <v>55.76907161</v>
       </c>
       <c r="E8">
-        <v>37.85973864</v>
+        <v>38.43719943</v>
       </c>
       <c r="F8">
-        <v>56.00982079</v>
+        <v>55.77206291</v>
       </c>
       <c r="G8">
-        <v>20.26</v>
+        <v>11.07</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
       <c r="I8">
-        <v>10.26</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>638717</v>
+        <v>630459</v>
       </c>
       <c r="B9">
-        <v>622383</v>
+        <v>622409</v>
       </c>
       <c r="C9">
-        <v>37.85973864</v>
+        <v>38.43719943</v>
       </c>
       <c r="D9">
-        <v>56.00982079</v>
+        <v>55.77206291</v>
       </c>
       <c r="E9">
-        <v>37.8416069</v>
+        <v>38.43827682</v>
       </c>
       <c r="F9">
-        <v>56.01107336</v>
+        <v>55.77435346</v>
       </c>
       <c r="G9">
-        <v>12.17</v>
+        <v>10.64</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
       <c r="I9">
-        <v>2.17</v>
+        <v>0.6400000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>622383</v>
+        <v>622409</v>
       </c>
       <c r="B10">
-        <v>677529</v>
+        <v>645338</v>
       </c>
       <c r="C10">
-        <v>37.8416069</v>
+        <v>38.43827682</v>
       </c>
       <c r="D10">
-        <v>56.01107336</v>
+        <v>55.77435346</v>
       </c>
       <c r="E10">
-        <v>37.87227757</v>
+        <v>38.44342728</v>
       </c>
       <c r="F10">
-        <v>56.00199436</v>
+        <v>55.77012273</v>
       </c>
       <c r="G10">
-        <v>13.87</v>
+        <v>10.84</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
       <c r="I10">
-        <v>3.870000000000001</v>
+        <v>0.8399999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>677529</v>
+        <v>645338</v>
       </c>
       <c r="B11">
-        <v>688219</v>
+        <v>608994</v>
       </c>
       <c r="C11">
-        <v>37.87227757</v>
+        <v>38.44342728</v>
       </c>
       <c r="D11">
-        <v>56.00199436</v>
+        <v>55.77012273</v>
       </c>
       <c r="E11">
-        <v>37.86093866</v>
+        <v>38.44671777</v>
       </c>
       <c r="F11">
-        <v>55.95864023</v>
+        <v>55.76467648</v>
       </c>
       <c r="G11">
-        <v>20.33</v>
+        <v>11.72</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
-        <v>10.33</v>
+        <v>1.720000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>688219</v>
+        <v>608994</v>
       </c>
       <c r="B12">
-        <v>682277</v>
+        <v>634903</v>
       </c>
       <c r="C12">
-        <v>37.86093866</v>
+        <v>38.44671777</v>
       </c>
       <c r="D12">
-        <v>55.95864023</v>
+        <v>55.76467648</v>
       </c>
       <c r="E12">
-        <v>37.83379799</v>
+        <v>38.43009564</v>
       </c>
       <c r="F12">
-        <v>55.94835244</v>
+        <v>55.77009207</v>
       </c>
       <c r="G12">
-        <v>14.49</v>
+        <v>13.24</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
       <c r="I12">
-        <v>4.49</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>682277</v>
+        <v>634903</v>
       </c>
       <c r="B13">
-        <v>635297</v>
+        <v>635561</v>
       </c>
       <c r="C13">
-        <v>37.83379799</v>
+        <v>38.43009564</v>
       </c>
       <c r="D13">
-        <v>55.94835244</v>
+        <v>55.77009207</v>
       </c>
       <c r="E13">
-        <v>37.86269928</v>
+        <v>38.42431889</v>
       </c>
       <c r="F13">
-        <v>55.92285414</v>
+        <v>55.76942198</v>
       </c>
       <c r="G13">
-        <v>18.55</v>
+        <v>12.1</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>8.550000000000001</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>635297</v>
+        <v>635561</v>
       </c>
       <c r="B14">
-        <v>622458</v>
+        <v>609949</v>
       </c>
       <c r="C14">
-        <v>37.86269928</v>
+        <v>38.42431889</v>
       </c>
       <c r="D14">
-        <v>55.92285414</v>
+        <v>55.76942198</v>
       </c>
       <c r="E14">
-        <v>37.74834671</v>
+        <v>38.43091901</v>
       </c>
       <c r="F14">
-        <v>55.91219408</v>
+        <v>55.76832269</v>
       </c>
       <c r="G14">
-        <v>23.42</v>
+        <v>10.93</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <v>13.42</v>
+        <v>0.9299999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>622458</v>
+        <v>609949</v>
       </c>
       <c r="B15">
-        <v>698690</v>
+        <v>634916</v>
       </c>
       <c r="C15">
-        <v>37.74834671</v>
+        <v>38.43091901</v>
       </c>
       <c r="D15">
-        <v>55.91219408</v>
+        <v>55.76832269</v>
       </c>
       <c r="E15">
-        <v>37.73984581</v>
+        <v>38.44269588</v>
       </c>
       <c r="F15">
-        <v>55.91443208</v>
+        <v>55.7947013</v>
       </c>
       <c r="G15">
-        <v>12.72</v>
+        <v>17.59</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>2.720000000000001</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>698690</v>
+        <v>634916</v>
       </c>
       <c r="B16">
-        <v>608077</v>
+        <v>645061</v>
       </c>
       <c r="C16">
-        <v>37.73984581</v>
+        <v>38.44269588</v>
       </c>
       <c r="D16">
-        <v>55.91443208</v>
+        <v>55.7947013</v>
       </c>
       <c r="E16">
-        <v>37.74207943</v>
+        <v>38.44060679</v>
       </c>
       <c r="F16">
-        <v>55.91653431</v>
+        <v>55.80283431</v>
       </c>
       <c r="G16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>608077</v>
+        <v>645061</v>
       </c>
       <c r="B17">
-        <v>607515</v>
+        <v>622464</v>
       </c>
       <c r="C17">
-        <v>37.74207943</v>
+        <v>38.44060679</v>
       </c>
       <c r="D17">
-        <v>55.91653431</v>
+        <v>55.80283431</v>
       </c>
       <c r="E17">
-        <v>37.73466907</v>
+        <v>38.43492639</v>
       </c>
       <c r="F17">
-        <v>55.91065245</v>
+        <v>55.80487084</v>
       </c>
       <c r="G17">
-        <v>12.44</v>
+        <v>13.47</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>2.44</v>
+        <v>3.470000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>607515</v>
+        <v>622464</v>
       </c>
       <c r="B18">
-        <v>622450</v>
+        <v>609348</v>
       </c>
       <c r="C18">
-        <v>37.73466907</v>
+        <v>38.43492639</v>
       </c>
       <c r="D18">
-        <v>55.91065245</v>
+        <v>55.80487084</v>
       </c>
       <c r="E18">
-        <v>37.72331703</v>
+        <v>38.460359</v>
       </c>
       <c r="F18">
-        <v>55.90931227</v>
+        <v>55.80185327</v>
       </c>
       <c r="G18">
-        <v>12.22</v>
+        <v>15.92</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>2.220000000000001</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>622450</v>
+        <v>609348</v>
       </c>
       <c r="B19">
-        <v>608074</v>
+        <v>698938</v>
       </c>
       <c r="C19">
-        <v>37.72331703</v>
+        <v>38.460359</v>
       </c>
       <c r="D19">
-        <v>55.90931227</v>
+        <v>55.80185327</v>
       </c>
       <c r="E19">
-        <v>37.73131665</v>
+        <v>38.46754959</v>
       </c>
       <c r="F19">
-        <v>55.907634</v>
+        <v>55.79383023</v>
       </c>
       <c r="G19">
-        <v>12.64</v>
+        <v>12.56</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>2.640000000000001</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>608074</v>
+        <v>698938</v>
       </c>
       <c r="B20">
-        <v>619186</v>
+        <v>619224</v>
       </c>
       <c r="C20">
-        <v>37.73131665</v>
+        <v>38.46754959</v>
       </c>
       <c r="D20">
-        <v>55.907634</v>
+        <v>55.79383023</v>
       </c>
       <c r="E20">
-        <v>37.73316685</v>
+        <v>38.46787885</v>
       </c>
       <c r="F20">
-        <v>55.9059925</v>
+        <v>55.80178319</v>
       </c>
       <c r="G20">
-        <v>11.17</v>
+        <v>13.76</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>1.17</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>619186</v>
+        <v>619224</v>
       </c>
       <c r="B21">
-        <v>607525</v>
+        <v>634812</v>
       </c>
       <c r="C21">
-        <v>37.73316685</v>
+        <v>38.46787885</v>
       </c>
       <c r="D21">
-        <v>55.9059925</v>
+        <v>55.80178319</v>
       </c>
       <c r="E21">
-        <v>37.72656672</v>
+        <v>38.43016571</v>
       </c>
       <c r="F21">
-        <v>55.90423188</v>
+        <v>55.80061383</v>
       </c>
       <c r="G21">
-        <v>12.36</v>
+        <v>17.2</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21">
-        <v>2.359999999999999</v>
+        <v>7.199999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>607525</v>
+        <v>634812</v>
       </c>
       <c r="B22">
-        <v>664734</v>
+        <v>649942</v>
       </c>
       <c r="C22">
-        <v>37.72656672</v>
+        <v>38.43016571</v>
       </c>
       <c r="D22">
-        <v>55.90423188</v>
+        <v>55.80061383</v>
       </c>
       <c r="E22">
-        <v>37.71853883</v>
+        <v>38.47975645</v>
       </c>
       <c r="F22">
-        <v>55.90173111</v>
+        <v>55.83266408</v>
       </c>
       <c r="G22">
-        <v>12.57</v>
+        <v>21.01</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>2.57</v>
+        <v>11.01</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>664734</v>
+        <v>649942</v>
       </c>
       <c r="B23">
-        <v>627726</v>
+        <v>609093</v>
       </c>
       <c r="C23">
-        <v>37.71853883</v>
+        <v>38.47975645</v>
       </c>
       <c r="D23">
-        <v>55.90173111</v>
+        <v>55.83266408</v>
       </c>
       <c r="E23">
-        <v>37.7058072</v>
+        <v>38.49628962</v>
       </c>
       <c r="F23">
-        <v>55.90623338</v>
+        <v>55.85274038</v>
       </c>
       <c r="G23">
-        <v>12.06</v>
+        <v>15.6</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>2.06</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>627726</v>
+        <v>609093</v>
       </c>
       <c r="B24">
-        <v>607513</v>
+        <v>688315</v>
       </c>
       <c r="C24">
-        <v>37.7058072</v>
+        <v>38.49628962</v>
       </c>
       <c r="D24">
-        <v>55.90623338</v>
+        <v>55.85274038</v>
       </c>
       <c r="E24">
-        <v>37.72377689</v>
+        <v>38.59849743</v>
       </c>
       <c r="F24">
-        <v>55.91585109</v>
+        <v>55.85302068</v>
       </c>
       <c r="G24">
-        <v>13.57</v>
+        <v>20.15</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24">
-        <v>3.57</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>607513</v>
+        <v>688315</v>
       </c>
       <c r="B25">
-        <v>636055</v>
+        <v>645479</v>
       </c>
       <c r="C25">
-        <v>37.72377689</v>
+        <v>38.59849743</v>
       </c>
       <c r="D25">
-        <v>55.91585109</v>
+        <v>55.85302068</v>
       </c>
       <c r="E25">
-        <v>37.72750835</v>
+        <v>38.63960917</v>
       </c>
       <c r="F25">
-        <v>55.91907013</v>
+        <v>55.85152284</v>
       </c>
       <c r="G25">
-        <v>14.92</v>
+        <v>10.41</v>
       </c>
       <c r="H25">
         <v>10</v>
       </c>
       <c r="I25">
-        <v>4.92</v>
+        <v>0.4100000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>636055</v>
+        <v>645479</v>
       </c>
       <c r="B26">
-        <v>607511</v>
+        <v>616665</v>
       </c>
       <c r="C26">
-        <v>37.72750835</v>
+        <v>38.63960917</v>
       </c>
       <c r="D26">
-        <v>55.91907013</v>
+        <v>55.85152284</v>
       </c>
       <c r="E26">
-        <v>37.71713734</v>
+        <v>38.63802299</v>
       </c>
       <c r="F26">
-        <v>55.90045225</v>
+        <v>55.85196419</v>
       </c>
       <c r="G26">
-        <v>17.22</v>
+        <v>13.48</v>
       </c>
       <c r="H26">
         <v>10</v>
       </c>
       <c r="I26">
-        <v>7.219999999999999</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>607511</v>
+        <v>616665</v>
       </c>
       <c r="B27">
-        <v>608014</v>
+        <v>609996</v>
       </c>
       <c r="C27">
-        <v>37.71713734</v>
+        <v>38.63802299</v>
       </c>
       <c r="D27">
-        <v>55.90045225</v>
+        <v>55.85196419</v>
       </c>
       <c r="E27">
-        <v>37.72266884</v>
+        <v>38.64557863</v>
       </c>
       <c r="F27">
-        <v>55.89410176</v>
+        <v>55.813271</v>
       </c>
       <c r="G27">
-        <v>19.6</v>
+        <v>21.36</v>
       </c>
       <c r="H27">
         <v>10</v>
       </c>
       <c r="I27">
-        <v>9.600000000000001</v>
+        <v>11.36</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>608014</v>
+        <v>609996</v>
       </c>
       <c r="B28">
-        <v>619184</v>
+        <v>622449</v>
       </c>
       <c r="C28">
-        <v>37.72266884</v>
+        <v>38.64557863</v>
       </c>
       <c r="D28">
-        <v>55.89410176</v>
+        <v>55.813271</v>
       </c>
       <c r="E28">
-        <v>37.71577965</v>
+        <v>38.64916994</v>
       </c>
       <c r="F28">
-        <v>55.89552077</v>
+        <v>55.77880319</v>
       </c>
       <c r="G28">
-        <v>11.57</v>
+        <v>16.61</v>
       </c>
       <c r="H28">
         <v>10</v>
       </c>
       <c r="I28">
-        <v>1.57</v>
+        <v>6.609999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>619184</v>
+        <v>622449</v>
       </c>
       <c r="B29">
-        <v>646728</v>
+        <v>635243</v>
       </c>
       <c r="C29">
-        <v>37.71577965</v>
+        <v>38.64916994</v>
       </c>
       <c r="D29">
-        <v>55.89552077</v>
+        <v>55.77880319</v>
       </c>
       <c r="E29">
-        <v>37.71279711</v>
+        <v>38.64754947</v>
       </c>
       <c r="F29">
-        <v>55.89690036</v>
+        <v>55.78090104</v>
       </c>
       <c r="G29">
-        <v>11.86</v>
+        <v>11.54</v>
       </c>
       <c r="H29">
         <v>10</v>
       </c>
       <c r="I29">
-        <v>1.859999999999999</v>
+        <v>1.539999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>646728</v>
+        <v>635243</v>
       </c>
       <c r="B30">
-        <v>637527</v>
+        <v>645389</v>
       </c>
       <c r="C30">
-        <v>37.71279711</v>
+        <v>38.64754947</v>
       </c>
       <c r="D30">
-        <v>55.89690036</v>
+        <v>55.78090104</v>
       </c>
       <c r="E30">
-        <v>37.67110726</v>
+        <v>38.66973676</v>
       </c>
       <c r="F30">
-        <v>55.89146084</v>
+        <v>55.78192149</v>
       </c>
       <c r="G30">
-        <v>13.71</v>
+        <v>12.04</v>
       </c>
       <c r="H30">
         <v>10</v>
       </c>
       <c r="I30">
-        <v>3.710000000000001</v>
+        <v>2.039999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>637527</v>
+        <v>645389</v>
       </c>
       <c r="B31">
-        <v>634750</v>
+        <v>619177</v>
       </c>
       <c r="C31">
-        <v>37.67110726</v>
+        <v>38.66973676</v>
       </c>
       <c r="D31">
-        <v>55.89146084</v>
+        <v>55.78192149</v>
       </c>
       <c r="E31">
-        <v>37.66949993</v>
+        <v>38.67640697</v>
       </c>
       <c r="F31">
-        <v>55.88632351</v>
+        <v>55.77876377</v>
       </c>
       <c r="G31">
-        <v>11.6</v>
+        <v>11.22</v>
       </c>
       <c r="H31">
         <v>10</v>
       </c>
       <c r="I31">
-        <v>1.6</v>
+        <v>1.220000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>634750</v>
+        <v>619177</v>
       </c>
       <c r="B32">
-        <v>606160</v>
+        <v>645374</v>
       </c>
       <c r="C32">
-        <v>37.66949993</v>
+        <v>38.67640697</v>
       </c>
       <c r="D32">
-        <v>55.88632351</v>
+        <v>55.77876377</v>
       </c>
       <c r="E32">
-        <v>37.68194688</v>
+        <v>38.67708581</v>
       </c>
       <c r="F32">
-        <v>55.87035094</v>
+        <v>55.77682358</v>
       </c>
       <c r="G32">
-        <v>13.59</v>
+        <v>12.2</v>
       </c>
       <c r="H32">
         <v>10</v>
       </c>
       <c r="I32">
-        <v>3.59</v>
+        <v>2.199999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>606160</v>
+        <v>645374</v>
       </c>
       <c r="B33">
-        <v>629701</v>
+        <v>623322</v>
       </c>
       <c r="C33">
-        <v>37.68194688</v>
+        <v>38.67708581</v>
       </c>
       <c r="D33">
-        <v>55.87035094</v>
+        <v>55.77682358</v>
       </c>
       <c r="E33">
-        <v>37.6527872</v>
+        <v>38.68532831</v>
       </c>
       <c r="F33">
-        <v>55.87891315</v>
+        <v>55.77730097</v>
       </c>
       <c r="G33">
-        <v>14.59</v>
+        <v>11.93</v>
       </c>
       <c r="H33">
         <v>10</v>
       </c>
       <c r="I33">
-        <v>4.59</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>629701</v>
+        <v>623322</v>
       </c>
       <c r="B34">
-        <v>688338</v>
+        <v>698950</v>
       </c>
       <c r="C34">
-        <v>37.6527872</v>
+        <v>38.68532831</v>
       </c>
       <c r="D34">
-        <v>55.87891315</v>
+        <v>55.77730097</v>
       </c>
       <c r="E34">
-        <v>37.63982782</v>
+        <v>38.69857674</v>
       </c>
       <c r="F34">
-        <v>55.87575104</v>
+        <v>55.77832142</v>
       </c>
       <c r="G34">
-        <v>13.62</v>
+        <v>12.71</v>
       </c>
       <c r="H34">
         <v>10</v>
       </c>
       <c r="I34">
-        <v>3.620000000000001</v>
+        <v>2.710000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>688338</v>
+        <v>698950</v>
       </c>
       <c r="B35">
-        <v>689117</v>
+        <v>622431</v>
       </c>
       <c r="C35">
-        <v>37.63982782</v>
+        <v>38.69857674</v>
       </c>
       <c r="D35">
-        <v>55.87575104</v>
+        <v>55.77832142</v>
       </c>
       <c r="E35">
-        <v>37.63165978</v>
+        <v>38.69538767</v>
       </c>
       <c r="F35">
-        <v>55.87811167</v>
+        <v>55.78718096</v>
       </c>
       <c r="G35">
-        <v>12.65</v>
+        <v>15.4</v>
       </c>
       <c r="H35">
         <v>10</v>
       </c>
       <c r="I35">
-        <v>2.65</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>689117</v>
+        <v>622431</v>
       </c>
       <c r="B36">
-        <v>637507</v>
+        <v>695177</v>
       </c>
       <c r="C36">
-        <v>37.63165978</v>
+        <v>38.69538767</v>
       </c>
       <c r="D36">
-        <v>55.87811167</v>
+        <v>55.78718096</v>
       </c>
       <c r="E36">
-        <v>37.63114736</v>
+        <v>38.64908673</v>
       </c>
       <c r="F36">
-        <v>55.8725539</v>
+        <v>55.76850226</v>
       </c>
       <c r="G36">
-        <v>12.83</v>
+        <v>16.17</v>
       </c>
       <c r="H36">
         <v>10</v>
       </c>
       <c r="I36">
-        <v>2.83</v>
+        <v>6.170000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>637507</v>
+        <v>695177</v>
       </c>
       <c r="B37">
-        <v>634656</v>
+        <v>634894</v>
       </c>
       <c r="C37">
-        <v>37.63114736</v>
+        <v>38.64908673</v>
       </c>
       <c r="D37">
-        <v>55.8725539</v>
+        <v>55.76850226</v>
       </c>
       <c r="E37">
-        <v>37.6120959</v>
+        <v>38.6668462</v>
       </c>
       <c r="F37">
-        <v>55.86858156</v>
+        <v>55.77259285</v>
       </c>
       <c r="G37">
-        <v>12.16</v>
+        <v>11.27</v>
       </c>
       <c r="H37">
         <v>10</v>
       </c>
       <c r="I37">
-        <v>2.16</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>634656</v>
+        <v>634894</v>
       </c>
       <c r="B38">
-        <v>634657</v>
+        <v>609498</v>
       </c>
       <c r="C38">
-        <v>37.6120959</v>
+        <v>38.6668462</v>
       </c>
       <c r="D38">
-        <v>55.86858156</v>
+        <v>55.77259285</v>
       </c>
       <c r="E38">
-        <v>37.59732741</v>
+        <v>38.61782919</v>
       </c>
       <c r="F38">
-        <v>55.8686663</v>
+        <v>55.78143097</v>
       </c>
       <c r="G38">
-        <v>12.14</v>
+        <v>21.01</v>
       </c>
       <c r="H38">
         <v>10</v>
       </c>
       <c r="I38">
-        <v>2.140000000000001</v>
+        <v>11.01</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>634657</v>
+        <v>609498</v>
       </c>
       <c r="B39">
-        <v>619514</v>
+        <v>645415</v>
       </c>
       <c r="C39">
-        <v>37.59732741</v>
+        <v>38.61782919</v>
       </c>
       <c r="D39">
-        <v>55.8686663</v>
+        <v>55.78143097</v>
       </c>
       <c r="E39">
-        <v>37.59112615</v>
+        <v>38.78359882</v>
       </c>
       <c r="F39">
-        <v>55.87252324</v>
+        <v>55.87266339</v>
       </c>
       <c r="G39">
-        <v>12.67</v>
+        <v>34.06</v>
       </c>
       <c r="H39">
         <v>10</v>
       </c>
       <c r="I39">
-        <v>2.67</v>
+        <v>24.06</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>619514</v>
+        <v>645415</v>
       </c>
       <c r="B40">
-        <v>616478</v>
+        <v>609491</v>
       </c>
       <c r="C40">
-        <v>37.59112615</v>
+        <v>38.78359882</v>
       </c>
       <c r="D40">
-        <v>55.87252324</v>
+        <v>55.87266339</v>
       </c>
       <c r="E40">
-        <v>37.58705746</v>
+        <v>38.78107614</v>
       </c>
       <c r="F40">
-        <v>55.85971278</v>
+        <v>55.86775381</v>
       </c>
       <c r="G40">
-        <v>12.62</v>
+        <v>12.52</v>
       </c>
       <c r="H40">
         <v>10</v>
       </c>
       <c r="I40">
-        <v>2.620000000000001</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>616478</v>
+        <v>609491</v>
       </c>
       <c r="B41">
-        <v>606155</v>
+        <v>682243</v>
       </c>
       <c r="C41">
-        <v>37.58705746</v>
+        <v>38.78107614</v>
       </c>
       <c r="D41">
-        <v>55.85971278</v>
+        <v>55.86775381</v>
       </c>
       <c r="E41">
-        <v>37.5818194</v>
+        <v>38.78078708</v>
       </c>
       <c r="F41">
-        <v>55.84528184</v>
+        <v>55.873824</v>
       </c>
       <c r="G41">
-        <v>13.12</v>
+        <v>11.14</v>
       </c>
       <c r="H41">
         <v>10</v>
       </c>
       <c r="I41">
-        <v>3.120000000000001</v>
+        <v>1.140000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>606155</v>
+        <v>682243</v>
       </c>
       <c r="B42">
-        <v>607504</v>
+        <v>620787</v>
       </c>
       <c r="C42">
-        <v>37.5818194</v>
+        <v>38.78078708</v>
       </c>
       <c r="D42">
-        <v>55.84528184</v>
+        <v>55.873824</v>
       </c>
       <c r="E42">
-        <v>37.5930094</v>
+        <v>38.78613901</v>
       </c>
       <c r="F42">
-        <v>55.83132391</v>
+        <v>55.8812913</v>
       </c>
       <c r="G42">
-        <v>13.32</v>
+        <v>11.23</v>
       </c>
       <c r="H42">
         <v>10</v>
       </c>
       <c r="I42">
-        <v>3.32</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>607504</v>
+        <v>620787</v>
       </c>
       <c r="B43">
-        <v>669261</v>
+        <v>649505</v>
       </c>
       <c r="C43">
-        <v>37.5930094</v>
+        <v>38.78613901</v>
       </c>
       <c r="D43">
-        <v>55.83132391</v>
+        <v>55.8812913</v>
       </c>
       <c r="E43">
-        <v>37.59548828</v>
+        <v>38.78156666</v>
       </c>
       <c r="F43">
-        <v>55.8628705</v>
+        <v>55.88136137</v>
       </c>
       <c r="G43">
-        <v>15.99</v>
+        <v>10.45</v>
       </c>
       <c r="H43">
         <v>10</v>
       </c>
       <c r="I43">
-        <v>5.99</v>
+        <v>0.4499999999999993</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>669261</v>
+        <v>649505</v>
       </c>
       <c r="B44">
-        <v>636079</v>
+        <v>622457</v>
       </c>
       <c r="C44">
-        <v>37.59548828</v>
+        <v>38.78156666</v>
       </c>
       <c r="D44">
-        <v>55.8628705</v>
+        <v>55.88136137</v>
       </c>
       <c r="E44">
-        <v>37.6071688</v>
+        <v>38.7813847</v>
       </c>
       <c r="F44">
-        <v>55.85841202</v>
+        <v>55.88574489</v>
       </c>
       <c r="G44">
-        <v>13.61</v>
+        <v>11.81</v>
       </c>
       <c r="H44">
         <v>10</v>
       </c>
       <c r="I44">
-        <v>3.609999999999999</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>636079</v>
+        <v>622457</v>
       </c>
       <c r="B45">
-        <v>636759</v>
+        <v>649973</v>
       </c>
       <c r="C45">
-        <v>37.6071688</v>
+        <v>38.7813847</v>
       </c>
       <c r="D45">
-        <v>55.85841202</v>
+        <v>55.88574489</v>
       </c>
       <c r="E45">
-        <v>37.6376161</v>
+        <v>38.9878086</v>
       </c>
       <c r="F45">
-        <v>55.84963083</v>
+        <v>55.81901272</v>
       </c>
       <c r="G45">
-        <v>14.66</v>
+        <v>36.06</v>
       </c>
       <c r="H45">
         <v>10</v>
       </c>
       <c r="I45">
-        <v>4.66</v>
+        <v>26.06</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>636759</v>
+        <v>649973</v>
       </c>
       <c r="B46">
-        <v>634728</v>
+        <v>622469</v>
       </c>
       <c r="C46">
-        <v>37.6376161</v>
+        <v>38.9878086</v>
       </c>
       <c r="D46">
-        <v>55.84963083</v>
+        <v>55.81901272</v>
       </c>
       <c r="E46">
-        <v>37.6431257</v>
+        <v>38.98840861</v>
       </c>
       <c r="F46">
-        <v>55.85116371</v>
+        <v>55.81999376</v>
       </c>
       <c r="G46">
-        <v>11.2</v>
+        <v>10.67</v>
       </c>
       <c r="H46">
         <v>10</v>
       </c>
       <c r="I46">
-        <v>1.199999999999999</v>
+        <v>0.6699999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>634728</v>
+        <v>622469</v>
       </c>
       <c r="B47">
-        <v>634775</v>
+        <v>698989</v>
       </c>
       <c r="C47">
-        <v>37.6431257</v>
+        <v>38.98840861</v>
       </c>
       <c r="D47">
-        <v>55.85116371</v>
+        <v>55.81999376</v>
       </c>
       <c r="E47">
-        <v>37.6411461</v>
+        <v>38.9971601</v>
       </c>
       <c r="F47">
-        <v>55.85503093</v>
+        <v>55.80799654</v>
       </c>
       <c r="G47">
-        <v>12.09</v>
+        <v>13.11</v>
       </c>
       <c r="H47">
         <v>10</v>
       </c>
       <c r="I47">
-        <v>2.09</v>
+        <v>3.109999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>634775</v>
+        <v>698989</v>
       </c>
       <c r="B48">
-        <v>649938</v>
+        <v>658358</v>
       </c>
       <c r="C48">
-        <v>37.6411461</v>
+        <v>38.9971601</v>
       </c>
       <c r="D48">
-        <v>55.85503093</v>
+        <v>55.80799654</v>
       </c>
       <c r="E48">
-        <v>37.64364687</v>
+        <v>39.00559115</v>
       </c>
       <c r="F48">
-        <v>55.85886313</v>
+        <v>55.81232729</v>
       </c>
       <c r="G48">
-        <v>12.69</v>
+        <v>11.22</v>
       </c>
       <c r="H48">
         <v>10</v>
       </c>
       <c r="I48">
-        <v>2.69</v>
+        <v>1.220000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>658358</v>
+      </c>
+      <c r="B49">
+        <v>646513</v>
+      </c>
+      <c r="C49">
+        <v>39.00559115</v>
+      </c>
+      <c r="D49">
+        <v>55.81232729</v>
+      </c>
+      <c r="E49">
+        <v>39.00100885</v>
+      </c>
+      <c r="F49">
+        <v>55.80304015</v>
+      </c>
+      <c r="G49">
+        <v>13.23</v>
+      </c>
+      <c r="H49">
+        <v>10</v>
+      </c>
+      <c r="I49">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>646513</v>
+      </c>
+      <c r="B50">
+        <v>607779</v>
+      </c>
+      <c r="C50">
+        <v>39.00100885</v>
+      </c>
+      <c r="D50">
+        <v>55.80304015</v>
+      </c>
+      <c r="E50">
+        <v>38.98193987</v>
+      </c>
+      <c r="F50">
+        <v>55.81252208</v>
+      </c>
+      <c r="G50">
+        <v>16.13</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
+      </c>
+      <c r="I50">
+        <v>6.129999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>607779</v>
+      </c>
+      <c r="B51">
+        <v>645456</v>
+      </c>
+      <c r="C51">
+        <v>38.98193987</v>
+      </c>
+      <c r="D51">
+        <v>55.81252208</v>
+      </c>
+      <c r="E51">
+        <v>38.97937778</v>
+      </c>
+      <c r="F51">
+        <v>55.8128418</v>
+      </c>
+      <c r="G51">
+        <v>11.82</v>
+      </c>
+      <c r="H51">
+        <v>10</v>
+      </c>
+      <c r="I51">
+        <v>1.82</v>
       </c>
     </row>
   </sheetData>
